--- a/Development_Tracker_Reporter.xlsx
+++ b/Development_Tracker_Reporter.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev_Team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaleem.Mohammed\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Kaleem" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="80">
   <si>
     <t>Action</t>
   </si>
@@ -448,78 +448,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -601,6 +529,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -682,6 +622,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -763,6 +715,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -844,6 +808,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -925,6 +901,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -941,6 +929,18 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1068,143 +1068,143 @@
   <autoFilter ref="B1:M56"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Project Feature" totalsRowLabel="Total" dataDxfId="179" totalsRowDxfId="178"/>
-    <tableColumn id="10" name="ServerIP" dataDxfId="160" totalsRowDxfId="161"/>
-    <tableColumn id="2" name="File" dataDxfId="177" totalsRowDxfId="176"/>
-    <tableColumn id="3" name="Folder" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="4" name="Status" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="5" name="Action" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="6" name="Goal" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="7" name="Table Accessed (DB)" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="8" name="Table Altered (DB)" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="9" name="Comment" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="11" name="Date Created" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="12" name="Date Updated" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="10" name="ServerIP" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="2" name="File" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="3" name="Folder" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="4" name="Status" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="5" name="Action" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="6" name="Goal" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="7" name="Table Accessed (DB)" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="8" name="Table Altered (DB)" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="9" name="Comment" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="11" name="Date Created" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="12" name="Date Updated" dataDxfId="157" totalsRowDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau132" displayName="Tableau132" ref="B1:M56" headerRowDxfId="159" dataDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau132" displayName="Tableau132" ref="B1:M56" headerRowDxfId="155" dataDxfId="154">
   <autoFilter ref="B1:M56"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Project Feature" totalsRowLabel="Total" dataDxfId="156" totalsRowDxfId="157"/>
-    <tableColumn id="10" name="ServerIP" dataDxfId="154" totalsRowDxfId="155"/>
-    <tableColumn id="2" name="File" dataDxfId="152" totalsRowDxfId="153"/>
-    <tableColumn id="3" name="Folder" dataDxfId="150" totalsRowDxfId="151"/>
-    <tableColumn id="4" name="Status" dataDxfId="148" totalsRowDxfId="149"/>
-    <tableColumn id="5" name="Action" dataDxfId="146" totalsRowDxfId="147"/>
-    <tableColumn id="6" name="Goal" dataDxfId="144" totalsRowDxfId="145"/>
-    <tableColumn id="7" name="Table Accessed (DB)" dataDxfId="142" totalsRowDxfId="143"/>
-    <tableColumn id="8" name="Table Altered (DB)" totalsRowFunction="count" dataDxfId="140" totalsRowDxfId="141"/>
-    <tableColumn id="9" name="Comment" dataDxfId="138" totalsRowDxfId="139"/>
-    <tableColumn id="11" name="Date Created" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="12" name="Date Updated" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="1" name="Project Feature" totalsRowLabel="Total" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="10" name="ServerIP" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="2" name="File" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="3" name="Folder" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="4" name="Status" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="5" name="Action" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="6" name="Goal" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="7" name="Table Accessed (DB)" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="8" name="Table Altered (DB)" totalsRowFunction="count" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="9" name="Comment" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="11" name="Date Created" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="12" name="Date Updated" dataDxfId="131" totalsRowDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau1324" displayName="Tableau1324" ref="B1:M56" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau1324" displayName="Tableau1324" ref="B1:M56" headerRowDxfId="129" dataDxfId="128">
   <autoFilter ref="B1:M56"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Project Feature" totalsRowLabel="Total" dataDxfId="134" totalsRowDxfId="135"/>
-    <tableColumn id="10" name="ServerIP" dataDxfId="132" totalsRowDxfId="133"/>
-    <tableColumn id="2" name="File" dataDxfId="130" totalsRowDxfId="131"/>
-    <tableColumn id="3" name="Folder" dataDxfId="128" totalsRowDxfId="129"/>
-    <tableColumn id="4" name="Status" dataDxfId="126" totalsRowDxfId="127"/>
-    <tableColumn id="5" name="Action" dataDxfId="124" totalsRowDxfId="125"/>
-    <tableColumn id="6" name="Goal" dataDxfId="122" totalsRowDxfId="123"/>
-    <tableColumn id="7" name="Table Accessed (DB)" dataDxfId="120" totalsRowDxfId="121"/>
-    <tableColumn id="8" name="Table Altered (DB)" totalsRowFunction="count" dataDxfId="118" totalsRowDxfId="119"/>
-    <tableColumn id="9" name="Comment" dataDxfId="116" totalsRowDxfId="117"/>
-    <tableColumn id="11" name="Date Created" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="12" name="Date Updated" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="1" name="Project Feature" totalsRowLabel="Total" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="10" name="ServerIP" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="2" name="File" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="3" name="Folder" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="4" name="Status" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="5" name="Action" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="6" name="Goal" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="7" name="Table Accessed (DB)" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="8" name="Table Altered (DB)" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="9" name="Comment" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="11" name="Date Created" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="12" name="Date Updated" dataDxfId="105" totalsRowDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau13245" displayName="Tableau13245" ref="B1:M56" headerRowDxfId="115" dataDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau13245" displayName="Tableau13245" ref="B1:M56" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="B1:M56"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Project Feature" totalsRowLabel="Total" dataDxfId="112" totalsRowDxfId="113"/>
-    <tableColumn id="10" name="ServerIP" dataDxfId="110" totalsRowDxfId="111"/>
-    <tableColumn id="2" name="File" dataDxfId="108" totalsRowDxfId="109"/>
-    <tableColumn id="3" name="Folder" dataDxfId="106" totalsRowDxfId="107"/>
-    <tableColumn id="4" name="Status" dataDxfId="104" totalsRowDxfId="105"/>
-    <tableColumn id="5" name="Action" dataDxfId="102" totalsRowDxfId="103"/>
-    <tableColumn id="6" name="Goal" dataDxfId="100" totalsRowDxfId="101"/>
-    <tableColumn id="7" name="Table Accessed (DB)" dataDxfId="98" totalsRowDxfId="99"/>
-    <tableColumn id="8" name="Table Altered (DB)" totalsRowFunction="count" dataDxfId="96" totalsRowDxfId="97"/>
-    <tableColumn id="9" name="Comment" dataDxfId="94" totalsRowDxfId="95"/>
-    <tableColumn id="11" name="Date Created" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="12" name="Date Updated" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" name="Project Feature" totalsRowLabel="Total" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="10" name="ServerIP" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="2" name="File" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="3" name="Folder" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="4" name="Status" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="5" name="Action" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="6" name="Goal" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="7" name="Table Accessed (DB)" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="8" name="Table Altered (DB)" totalsRowFunction="count" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="9" name="Comment" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="11" name="Date Created" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="12" name="Date Updated" dataDxfId="79" totalsRowDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau132456" displayName="Tableau132456" ref="B1:M56" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau132456" displayName="Tableau132456" ref="B1:M56" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="B1:M56"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Project Feature" totalsRowLabel="Total" dataDxfId="90" totalsRowDxfId="91"/>
-    <tableColumn id="10" name="ServerIP" dataDxfId="88" totalsRowDxfId="89"/>
-    <tableColumn id="2" name="File" dataDxfId="86" totalsRowDxfId="87"/>
-    <tableColumn id="3" name="Folder" dataDxfId="84" totalsRowDxfId="85"/>
-    <tableColumn id="4" name="Status" dataDxfId="82" totalsRowDxfId="83"/>
-    <tableColumn id="5" name="Action" dataDxfId="80" totalsRowDxfId="81"/>
-    <tableColumn id="6" name="Goal" dataDxfId="78" totalsRowDxfId="79"/>
-    <tableColumn id="7" name="Table Accessed (DB)" dataDxfId="76" totalsRowDxfId="77"/>
-    <tableColumn id="8" name="Table Altered (DB)" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="75"/>
-    <tableColumn id="9" name="Comment" dataDxfId="72" totalsRowDxfId="73"/>
-    <tableColumn id="11" name="Date Created" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="12" name="Date Updated" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Project Feature" totalsRowLabel="Total" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="10" name="ServerIP" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="2" name="File" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="3" name="Folder" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="4" name="Status" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="5" name="Action" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="6" name="Goal" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="7" name="Table Accessed (DB)" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="8" name="Table Altered (DB)" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="9" name="Comment" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="11" name="Date Created" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="12" name="Date Updated" dataDxfId="53" totalsRowDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau1324567" displayName="Tableau1324567" ref="B1:M56" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau1324567" displayName="Tableau1324567" ref="B1:M56" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="B1:M56"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Project Feature" totalsRowLabel="Total" dataDxfId="68" totalsRowDxfId="69"/>
-    <tableColumn id="10" name="ServerIP" dataDxfId="66" totalsRowDxfId="67"/>
-    <tableColumn id="2" name="File" dataDxfId="64" totalsRowDxfId="65"/>
-    <tableColumn id="3" name="Folder" dataDxfId="62" totalsRowDxfId="63"/>
-    <tableColumn id="4" name="Status" dataDxfId="60" totalsRowDxfId="61"/>
-    <tableColumn id="5" name="Action" dataDxfId="58" totalsRowDxfId="59"/>
-    <tableColumn id="6" name="Goal" dataDxfId="56" totalsRowDxfId="57"/>
-    <tableColumn id="7" name="Table Accessed (DB)" dataDxfId="54" totalsRowDxfId="55"/>
-    <tableColumn id="8" name="Table Altered (DB)" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="53"/>
-    <tableColumn id="9" name="Comment" dataDxfId="50" totalsRowDxfId="51"/>
-    <tableColumn id="11" name="Date Created" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="Date Updated" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="1" name="Project Feature" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="10" name="ServerIP" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="2" name="File" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="3" name="Folder" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="4" name="Status" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="5" name="Action" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="6" name="Goal" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="7" name="Table Accessed (DB)" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="8" name="Table Altered (DB)" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="9" name="Comment" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="11" name="Date Created" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="12" name="Date Updated" dataDxfId="27" totalsRowDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau1324568" displayName="Tableau1324568" ref="B1:M56" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau1324568" displayName="Tableau1324568" ref="B1:M56" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B1:M56"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Project Feature" totalsRowLabel="Total" dataDxfId="46" totalsRowDxfId="47"/>
-    <tableColumn id="10" name="ServerIP" dataDxfId="44" totalsRowDxfId="45"/>
-    <tableColumn id="2" name="File" dataDxfId="42" totalsRowDxfId="43"/>
-    <tableColumn id="3" name="Folder" dataDxfId="40" totalsRowDxfId="41"/>
-    <tableColumn id="4" name="Status" dataDxfId="38" totalsRowDxfId="39"/>
-    <tableColumn id="5" name="Action" dataDxfId="36" totalsRowDxfId="37"/>
-    <tableColumn id="6" name="Goal" dataDxfId="34" totalsRowDxfId="35"/>
-    <tableColumn id="7" name="Table Accessed (DB)" dataDxfId="32" totalsRowDxfId="33"/>
-    <tableColumn id="8" name="Table Altered (DB)" totalsRowFunction="count" dataDxfId="30" totalsRowDxfId="31"/>
-    <tableColumn id="9" name="Comment" dataDxfId="28" totalsRowDxfId="29"/>
-    <tableColumn id="11" name="Date Created" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="12" name="Date Created2" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="1" name="Project Feature" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="10" name="ServerIP" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" name="File" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" name="Folder" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="Status" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="Action" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" name="Goal" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="7" name="Table Accessed (DB)" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="8" name="Table Altered (DB)" totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="9" name="Comment" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="11" name="Date Created" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="12" name="Date Created2" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1510,7 +1510,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,6 +1600,61 @@
       </c>
       <c r="K2" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="60" x14ac:dyDescent="0.25">

--- a/Development_Tracker_Reporter.xlsx
+++ b/Development_Tracker_Reporter.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="80">
   <si>
     <t>Action</t>
   </si>
@@ -1510,7 +1510,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,6 +1654,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
     </row>
